--- a/3/3_stress_strain.xlsx
+++ b/3/3_stress_strain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4732D5D1-9FE0-4340-8FDD-C60DA2F0DB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7B5ED2-ED26-D747-8CD9-9BDB96FAD521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{A068A5AC-9183-0248-A637-2C8AAD3E17BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{A068A5AC-9183-0248-A637-2C8AAD3E17BE}"/>
   </bookViews>
   <sheets>
     <sheet name="cfrp1_pla" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,14 @@
     <sheet name="kasa_ela" sheetId="3" r:id="rId3"/>
     <sheet name="kasa_pla" sheetId="4" r:id="rId4"/>
     <sheet name="まとめ" sheetId="5" r:id="rId5"/>
+    <sheet name="まとめ２" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">まとめ２!$A$2:$A$3,まとめ２!$A$7:$A$9</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">まとめ２!$B$1</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">まとめ２!$B$2:$B$3,まとめ２!$B$7:$B$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>sheet_name</t>
   </si>
@@ -148,11 +154,65 @@
     <t>sita=30</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CFRP1本</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ホン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2本</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ホン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2_斜め_小</t>
+    <rPh sb="6" eb="7">
+      <t>７メ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2_斜め_小</t>
+    <rPh sb="6" eb="7">
+      <t>７メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2_斜め_中</t>
+    <rPh sb="6" eb="7">
+      <t>７メ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CFRP2_斜め_大</t>
+    <rPh sb="6" eb="7">
+      <t>７メ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="186" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -223,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +294,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5207,6 +5271,891 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>まとめ２!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>まとめ２!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>CFRP1本</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CFRP2本</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CFRP2_斜め_小</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CFRP2_斜め_中</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CFRP2_斜め_大</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>まとめ２!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.966714285714289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.356285714285711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.979142857142861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D470-5B49-A8BD-E9A4717650C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="992094800"/>
+        <c:axId val="992264240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="992094800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="992264240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="992264240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="992094800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>まとめ２!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>young's_modulus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>まとめ２!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>CFRP1本</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CFRP2本</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CFRP2_斜め_小</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CFRP2_斜め_中</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CFRP2_斜め_大</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>まとめ２!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.8222121428571416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7615188311688321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8809190043290043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9167553246753259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0999781385281393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-093B-2D4F-B134-9F5D3077A6EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="992094800"/>
+        <c:axId val="992264240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="992094800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="992264240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="992264240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="992094800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>まとめ２!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tensile_strength</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(まとめ２!$A$2:$A$3,まとめ２!$A$7:$A$9)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>CFRP1本</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CFRP2本</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CFRP2_斜め_小</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CFRP2_斜め_中</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CFRP2_斜め_大</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(まとめ２!$B$2:$B$3,まとめ２!$B$7:$B$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.966714285714289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.19585714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.96914285714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.35854285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-908F-F94E-87BC-52E3F9194E19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1049110192"/>
+        <c:axId val="1049278544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1049110192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049278544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1049278544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049110192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -7765,6 +8714,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12194,6 +13263,1515 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -17156,6 +19734,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>649742</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>810758</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147377</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16178CA7-ED2E-984D-8981-2CED1A5E7CCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>931189</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>567412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>223577</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC69E7FD-0DE5-694E-965E-A3467799617A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453BFD1B-2D40-F44D-9EFF-9498CE354154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -17456,7 +20149,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -17501,7 +20194,7 @@
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -17580,7 +20273,7 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A6" sqref="A6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -17845,7 +20538,7 @@
   <dimension ref="A2:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -18109,7 +20802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F555B43-FF67-9549-9EC0-FFB19BD74D57}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -18119,4 +20812,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600BF7BC-A3F4-6147-A841-6A54C278C1A5}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4">
+        <v>40.966714285714289</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4822.2121428571418</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2/1000</f>
+        <v>4.8222121428571416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4">
+        <v>14.364000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3761.5188311688321</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D9" si="0">C3/1000</f>
+        <v>3.7615188311688321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4">
+        <v>16.419</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4880.9190043290046</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>4.8809190043290043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4">
+        <v>16.356285714285711</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4916.7553246753259</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9167553246753259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4">
+        <v>16.979142857142861</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5099.9781385281394</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>5.0999781385281393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20.19585714285714</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4922.6499999999987</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9226499999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4">
+        <v>18.96914285714286</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4963.5142857142828</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9635142857142824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4">
+        <v>12.35854285714286</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2566.8035714285702</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5668035714285704</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>